--- a/biology/Médecine/Jean-Jacques_Pillot/Jean-Jacques_Pillot.xlsx
+++ b/biology/Médecine/Jean-Jacques_Pillot/Jean-Jacques_Pillot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Jacques[1] Pillot, né le 9 août 1808 à Vaux-Lavalette (Charente) et mort à la prison centrale de Melun (devenu depuis le centre de détention de Melun) le 13 juin 1877, est un écrivain socialiste et homme politique français. Figure du communisme néo-babouviste des années 1840[2], athée[3], il est une personnalité de la Commune de Paris.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Jacques Pillot, né le 9 août 1808 à Vaux-Lavalette (Charente) et mort à la prison centrale de Melun (devenu depuis le centre de détention de Melun) le 13 juin 1877, est un écrivain socialiste et homme politique français. Figure du communisme néo-babouviste des années 1840, athée, il est une personnalité de la Commune de Paris.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Se destinant à la vie religieuse, il étudie au séminaire, avant d'enseigner à Marennes[4]. Il renonce à son état de prêtre en 1837 et devient médecin. À partir de 1839, il fait de la propagande pour les idées de Babeuf. Arrêté à la suite de l'insurrection de la Société des saisons (12-13 mai 1839), il est enfermé à Sainte-Pélagie. Il devient directeur de la Tribune du Peuple, organise avec Théodore Dézamy et Corneille Homberg, le premier banquet communiste à Belleville le 1er juillet 1840[5] et est condamné à six mois de prison, en 1841, pour affiliation à une secte communiste. Il est condamné à la déportation après le coup d'État de Louis-Napoléon Bonaparte en 1851, condamnation à laquelle il se soustrait en s'exilant au Brésil. Revenu en France, il se lance dans les affaires (pâtes dentifrice et dentiers).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se destinant à la vie religieuse, il étudie au séminaire, avant d'enseigner à Marennes. Il renonce à son état de prêtre en 1837 et devient médecin. À partir de 1839, il fait de la propagande pour les idées de Babeuf. Arrêté à la suite de l'insurrection de la Société des saisons (12-13 mai 1839), il est enfermé à Sainte-Pélagie. Il devient directeur de la Tribune du Peuple, organise avec Théodore Dézamy et Corneille Homberg, le premier banquet communiste à Belleville le 1er juillet 1840 et est condamné à six mois de prison, en 1841, pour affiliation à une secte communiste. Il est condamné à la déportation après le coup d'État de Louis-Napoléon Bonaparte en 1851, condamnation à laquelle il se soustrait en s'exilant au Brésil. Revenu en France, il se lance dans les affaires (pâtes dentifrice et dentiers).
 Pendant le siège de Paris par les Allemands (septembre 1870- mars 1871), il se fait remarquer comme orateur au Club de l'École de médecine ; il est membre de l'Association internationale des travailleurs et favorable au Blanquisme. Aux élections complémentaires du 16 avril 1871, il est élu au Conseil de la Commune par le 1erarrondissement. Il vote pour la création du Comité de Salut public. Il est arrêté par les Versaillais en octobre 1871, est accusé d'avoir participé à l'incendie du Palais des Tuileries. En mai 1872, il est condamné aux travaux forcés à perpétuité par le Conseil de guerre, mais sa peine est commuée en réclusion perpétuelle.
-Avec Jules Gay et Théodore Dézamy, il est cité par Karl Marx parmi les « communistes matérialistes »[6].
+Avec Jules Gay et Théodore Dézamy, il est cité par Karl Marx parmi les « communistes matérialistes ».
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Code religieux, ou le Culte chrétien, Paris, Valant, 1837, 64 p.
 La Tribune du peuple, recueil philosophique et historique, Paris, la Tribune du peuple, 1839, 224 p.
